--- a/published-data/fonds-solidarite/fds-2022-05-13/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-05-13/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
@@ -492,13 +492,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>766307</v>
+        <v>766310</v>
       </c>
       <c r="D2" t="n">
         <v>155968</v>
       </c>
       <c r="E2" t="n">
-        <v>1429178081</v>
+        <v>1429187466</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -820,13 +820,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>345532</v>
+        <v>345533</v>
       </c>
       <c r="D10" t="n">
         <v>64164</v>
       </c>
       <c r="E10" t="n">
-        <v>1817701330</v>
+        <v>1817711330</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -943,13 +943,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>187832</v>
+        <v>187834</v>
       </c>
       <c r="D13" t="n">
-        <v>33261</v>
+        <v>33262</v>
       </c>
       <c r="E13" t="n">
-        <v>1165163461</v>
+        <v>1165224910</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -2624,13 +2624,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>75190</v>
+        <v>75191</v>
       </c>
       <c r="D54" t="n">
         <v>14914</v>
       </c>
       <c r="E54" t="n">
-        <v>361038094</v>
+        <v>361048094</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -3608,13 +3608,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>178439</v>
+        <v>178440</v>
       </c>
       <c r="D78" t="n">
         <v>34685</v>
       </c>
       <c r="E78" t="n">
-        <v>892467990</v>
+        <v>892473543</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -3731,13 +3731,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>88349</v>
+        <v>88350</v>
       </c>
       <c r="D81" t="n">
         <v>16598</v>
       </c>
       <c r="E81" t="n">
-        <v>499611238</v>
+        <v>499614738</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -4018,13 +4018,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>71261</v>
+        <v>71264</v>
       </c>
       <c r="D88" t="n">
         <v>12436</v>
       </c>
       <c r="E88" t="n">
-        <v>110287231</v>
+        <v>110294557</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -4141,13 +4141,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>18845</v>
+        <v>18848</v>
       </c>
       <c r="D91" t="n">
         <v>3383</v>
       </c>
       <c r="E91" t="n">
-        <v>75099352</v>
+        <v>75117834</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -4223,13 +4223,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>16921</v>
+        <v>16923</v>
       </c>
       <c r="D93" t="n">
         <v>2945</v>
       </c>
       <c r="E93" t="n">
-        <v>50436644</v>
+        <v>50452265</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -5371,13 +5371,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>1306118</v>
+        <v>1306126</v>
       </c>
       <c r="D121" t="n">
-        <v>220384</v>
+        <v>220385</v>
       </c>
       <c r="E121" t="n">
-        <v>2274540873</v>
+        <v>2274557857</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D122" t="n">
         <v>48</v>
       </c>
       <c r="E122" t="n">
-        <v>1155514</v>
+        <v>1156270</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -5699,13 +5699,13 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>633327</v>
+        <v>633338</v>
       </c>
       <c r="D129" t="n">
         <v>104966</v>
       </c>
       <c r="E129" t="n">
-        <v>3426629264</v>
+        <v>3426710411</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -5822,13 +5822,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>585608</v>
+        <v>585622</v>
       </c>
       <c r="D132" t="n">
         <v>90778</v>
       </c>
       <c r="E132" t="n">
-        <v>3460428096</v>
+        <v>3461185017</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -5986,13 +5986,13 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>26672</v>
+        <v>26675</v>
       </c>
       <c r="D136" t="n">
         <v>4272</v>
       </c>
       <c r="E136" t="n">
-        <v>143482019</v>
+        <v>143540532</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
@@ -6109,13 +6109,13 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>76637</v>
+        <v>76639</v>
       </c>
       <c r="D139" t="n">
         <v>17494</v>
       </c>
       <c r="E139" t="n">
-        <v>114129393</v>
+        <v>114131597</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -6314,13 +6314,13 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>25065</v>
+        <v>25068</v>
       </c>
       <c r="D144" t="n">
         <v>6170</v>
       </c>
       <c r="E144" t="n">
-        <v>92331999</v>
+        <v>92362703</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -6601,13 +6601,13 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>39920</v>
+        <v>39921</v>
       </c>
       <c r="D151" t="n">
         <v>7155</v>
       </c>
       <c r="E151" t="n">
-        <v>60358891</v>
+        <v>60359605</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
@@ -6724,13 +6724,13 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>18430</v>
+        <v>18438</v>
       </c>
       <c r="D154" t="n">
         <v>3296</v>
       </c>
       <c r="E154" t="n">
-        <v>72554723</v>
+        <v>72659539</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -6806,13 +6806,13 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>12394</v>
+        <v>12397</v>
       </c>
       <c r="D156" t="n">
         <v>2144</v>
       </c>
       <c r="E156" t="n">
-        <v>40027556</v>
+        <v>40042868</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -6888,13 +6888,13 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="D158" t="n">
         <v>132</v>
       </c>
       <c r="E158" t="n">
-        <v>1762560</v>
+        <v>1762994</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
@@ -6929,13 +6929,13 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>43846</v>
+        <v>43847</v>
       </c>
       <c r="D159" t="n">
         <v>5415</v>
       </c>
       <c r="E159" t="n">
-        <v>101311481</v>
+        <v>101312981</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
@@ -7708,13 +7708,13 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>515875</v>
+        <v>515876</v>
       </c>
       <c r="D178" t="n">
         <v>115380</v>
       </c>
       <c r="E178" t="n">
-        <v>891184224</v>
+        <v>891189200</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
@@ -8897,13 +8897,13 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>154659</v>
+        <v>154660</v>
       </c>
       <c r="D207" t="n">
         <v>27118</v>
       </c>
       <c r="E207" t="n">
-        <v>753621939</v>
+        <v>753642756</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
